--- a/Elecciones/data/Cargas Electorales/Cargas Electorales TSE 1.1.xlsx
+++ b/Elecciones/data/Cargas Electorales/Cargas Electorales TSE 1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector Corrales\Google Drive\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector Corrales\Documents\Entendiendo-Honduras\Elecciones\data\Cargas Electorales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2157,6 +2157,87 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="27" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2214,109 +2295,28 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="27" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2701,16 +2701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.45" customHeight="1" thickBot="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="259"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="286"/>
     </row>
     <row r="2" spans="1:8" ht="36.6" thickBot="1">
       <c r="A2" s="91" t="s">
@@ -3251,33 +3251,33 @@
       <c r="A23" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="254" t="s">
+      <c r="D23" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="254"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="282"/>
     </row>
     <row r="24" spans="1:8" ht="21">
       <c r="A24" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
+      <c r="D24" s="283"/>
+      <c r="E24" s="283"/>
+      <c r="F24" s="283"/>
+      <c r="G24" s="283"/>
+      <c r="H24" s="283"/>
     </row>
     <row r="25" spans="1:8" ht="41.7" customHeight="1">
       <c r="A25" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
+      <c r="D25" s="283"/>
+      <c r="E25" s="283"/>
+      <c r="F25" s="283"/>
+      <c r="G25" s="283"/>
+      <c r="H25" s="283"/>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" s="121"/>
@@ -3344,28 +3344,28 @@
       <c r="A2" s="9"/>
       <c r="B2" s="14"/>
       <c r="C2" s="75"/>
-      <c r="D2" s="260" t="s">
+      <c r="D2" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="264" t="s">
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="260" t="s">
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="287" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="263"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="290"/>
       <c r="T2" s="38"/>
       <c r="U2" s="38"/>
       <c r="V2" s="33" t="s">
@@ -4981,16 +4981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.7" customHeight="1" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="269"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="296"/>
     </row>
     <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="54" t="s">
@@ -5602,16 +5602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.95" customHeight="1" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="269"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="296"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="54.6" thickBot="1">
       <c r="A2" s="91" t="s">
@@ -6208,16 +6208,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.7" customHeight="1" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="294" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="269"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="296"/>
     </row>
     <row r="2" spans="1:11" ht="36.6" thickBot="1">
       <c r="A2" s="77" t="s">
@@ -6922,17 +6922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
     </row>
     <row r="2" spans="2:10" ht="36">
       <c r="B2" s="195" t="s">
@@ -7528,14 +7528,14 @@
       <c r="C21" s="198">
         <v>25</v>
       </c>
-      <c r="D21" s="272" t="s">
+      <c r="D21" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="272"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="272"/>
-      <c r="H21" s="272"/>
-      <c r="I21" s="272"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
       <c r="J21" s="192">
         <v>0</v>
       </c>
@@ -7628,19 +7628,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="294" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="269"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="296"/>
     </row>
     <row r="2" spans="2:12" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="221" t="s">
@@ -8494,9 +8494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8514,40 +8514,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="275"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="282" t="s">
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="275"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="282" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="275"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="282" t="s">
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="305" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="275"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="303" t="s">
+      <c r="L1" s="306"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="304"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="277"/>
-      <c r="B2" s="284" t="s">
+      <c r="A2" s="301"/>
+      <c r="B2" s="258" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="234" t="s">
@@ -8556,7 +8556,7 @@
       <c r="D2" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="284" t="s">
+      <c r="E2" s="258" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="234" t="s">
@@ -8565,16 +8565,16 @@
       <c r="G2" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="292" t="s">
+      <c r="H2" s="266" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="252" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="293" t="s">
+      <c r="J2" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="284" t="s">
+      <c r="K2" s="258" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="234" t="s">
@@ -8583,7 +8583,7 @@
       <c r="M2" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="284" t="s">
+      <c r="N2" s="258" t="s">
         <v>114</v>
       </c>
       <c r="O2" s="234" t="s">
@@ -8600,40 +8600,40 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="254" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="285">
+      <c r="B3" s="259">
         <v>179400</v>
       </c>
       <c r="C3" s="248">
         <v>107691</v>
       </c>
-      <c r="D3" s="286">
+      <c r="D3" s="260">
         <f>C3/B3</f>
         <v>0.60028428093645481</v>
       </c>
-      <c r="E3" s="285">
+      <c r="E3" s="268">
         <v>209254</v>
       </c>
-      <c r="F3" s="248">
+      <c r="F3" s="253">
         <v>96771</v>
       </c>
-      <c r="G3" s="286">
+      <c r="G3" s="260">
         <f>F3/E3</f>
         <v>0.46245710954151414</v>
       </c>
-      <c r="H3" s="294">
+      <c r="H3" s="268">
         <v>244616</v>
       </c>
       <c r="I3" s="253">
-        <v>108485</v>
-      </c>
-      <c r="J3" s="295">
+        <v>102761</v>
+      </c>
+      <c r="J3" s="269">
         <f>+I3/H3</f>
-        <v>0.4434910226640939</v>
-      </c>
-      <c r="K3" s="298">
+        <v>0.42009108153187036</v>
+      </c>
+      <c r="K3" s="272">
         <v>286443</v>
       </c>
       <c r="L3" s="230">
@@ -8643,7 +8643,7 @@
         <f>L3/K3</f>
         <v>0.51040172041208898</v>
       </c>
-      <c r="N3" s="304">
+      <c r="N3" s="277">
         <f t="shared" ref="N3:N21" si="0">(O3-K3)/K3</f>
         <v>0.11731827972755487</v>
       </c>
@@ -8663,40 +8663,40 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="287">
+      <c r="B4" s="261">
         <v>119384</v>
       </c>
       <c r="C4" s="249">
         <v>69781</v>
       </c>
-      <c r="D4" s="286">
+      <c r="D4" s="260">
         <f t="shared" ref="D4:D20" si="2">C4/B4</f>
         <v>0.58450881190109227</v>
       </c>
-      <c r="E4" s="287">
+      <c r="E4" s="268">
         <v>141787</v>
       </c>
-      <c r="F4" s="249">
+      <c r="F4" s="253">
         <v>66539</v>
       </c>
-      <c r="G4" s="286">
+      <c r="G4" s="260">
         <f t="shared" ref="G4:G20" si="3">F4/E4</f>
         <v>0.46928843970180623</v>
       </c>
-      <c r="H4" s="294">
+      <c r="H4" s="268">
         <v>167712</v>
       </c>
       <c r="I4" s="253">
-        <v>66583</v>
-      </c>
-      <c r="J4" s="295">
+        <v>60529</v>
+      </c>
+      <c r="J4" s="269">
         <f t="shared" ref="J4:J20" si="4">+I4/H4</f>
-        <v>0.39700796603701582</v>
-      </c>
-      <c r="K4" s="299">
+        <v>0.36091037015836674</v>
+      </c>
+      <c r="K4" s="273">
         <v>200445</v>
       </c>
       <c r="L4" s="224">
@@ -8706,7 +8706,7 @@
         <f t="shared" ref="M4:M20" si="5">L4/K4</f>
         <v>0.52736162039462198</v>
       </c>
-      <c r="N4" s="305">
+      <c r="N4" s="278">
         <f t="shared" si="0"/>
         <v>0.16288258624560353</v>
       </c>
@@ -8726,40 +8726,40 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="279" t="s">
+      <c r="A5" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="287">
+      <c r="B5" s="261">
         <v>184429</v>
       </c>
       <c r="C5" s="249">
         <v>126893</v>
       </c>
-      <c r="D5" s="286">
+      <c r="D5" s="260">
         <f t="shared" si="2"/>
         <v>0.6880317086792207</v>
       </c>
-      <c r="E5" s="287">
+      <c r="E5" s="268">
         <v>213894</v>
       </c>
-      <c r="F5" s="249">
-        <v>117218</v>
-      </c>
-      <c r="G5" s="286">
+      <c r="F5" s="253">
+        <v>115685</v>
+      </c>
+      <c r="G5" s="260">
         <f t="shared" si="3"/>
-        <v>0.54801911227056388</v>
-      </c>
-      <c r="H5" s="294">
+        <v>0.5408520108090924</v>
+      </c>
+      <c r="H5" s="268">
         <v>245631</v>
       </c>
       <c r="I5" s="253">
-        <v>125918</v>
-      </c>
-      <c r="J5" s="295">
+        <v>116617</v>
+      </c>
+      <c r="J5" s="269">
         <f t="shared" si="4"/>
-        <v>0.51263073471996612</v>
-      </c>
-      <c r="K5" s="299">
+        <v>0.47476499301798225</v>
+      </c>
+      <c r="K5" s="273">
         <v>290051</v>
       </c>
       <c r="L5" s="224">
@@ -8769,7 +8769,7 @@
         <f t="shared" si="5"/>
         <v>0.61819473127139712</v>
       </c>
-      <c r="N5" s="305">
+      <c r="N5" s="278">
         <f t="shared" si="0"/>
         <v>0.15249387176737883</v>
       </c>
@@ -8789,40 +8789,40 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="255" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="287">
+      <c r="B6" s="261">
         <v>152722</v>
       </c>
       <c r="C6" s="249">
         <v>108579</v>
       </c>
-      <c r="D6" s="286">
+      <c r="D6" s="260">
         <f t="shared" si="2"/>
         <v>0.71095847356634934</v>
       </c>
-      <c r="E6" s="287">
+      <c r="E6" s="268">
         <v>174123</v>
       </c>
-      <c r="F6" s="249">
-        <v>105173</v>
-      </c>
-      <c r="G6" s="286">
+      <c r="F6" s="253">
+        <v>103593</v>
+      </c>
+      <c r="G6" s="260">
         <f t="shared" si="3"/>
-        <v>0.60401555222457692</v>
-      </c>
-      <c r="H6" s="294">
+        <v>0.59494150686583624</v>
+      </c>
+      <c r="H6" s="268">
         <v>202119</v>
       </c>
       <c r="I6" s="253">
-        <v>119162</v>
-      </c>
-      <c r="J6" s="295">
+        <v>108550</v>
+      </c>
+      <c r="J6" s="269">
         <f t="shared" si="4"/>
-        <v>0.58956357393416747</v>
-      </c>
-      <c r="K6" s="299">
+        <v>0.53705985087992714</v>
+      </c>
+      <c r="K6" s="273">
         <v>233193</v>
       </c>
       <c r="L6" s="224">
@@ -8832,7 +8832,7 @@
         <f t="shared" si="5"/>
         <v>0.67650401169846441</v>
       </c>
-      <c r="N6" s="305">
+      <c r="N6" s="278">
         <f t="shared" si="0"/>
         <v>0.14225984484954524</v>
       </c>
@@ -8852,40 +8852,40 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="279" t="s">
+      <c r="A7" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="287">
+      <c r="B7" s="261">
         <v>628375</v>
       </c>
       <c r="C7" s="249">
         <v>369364</v>
       </c>
-      <c r="D7" s="286">
+      <c r="D7" s="260">
         <f t="shared" si="2"/>
         <v>0.58780823552814798</v>
       </c>
-      <c r="E7" s="287">
+      <c r="E7" s="268">
         <v>732246</v>
       </c>
-      <c r="F7" s="249">
+      <c r="F7" s="253">
         <v>310135</v>
       </c>
-      <c r="G7" s="286">
+      <c r="G7" s="260">
         <f t="shared" si="3"/>
         <v>0.42353935699204914</v>
       </c>
-      <c r="H7" s="294">
+      <c r="H7" s="268">
         <v>859473</v>
       </c>
       <c r="I7" s="253">
-        <v>353620</v>
-      </c>
-      <c r="J7" s="295">
+        <v>334357</v>
+      </c>
+      <c r="J7" s="269">
         <f t="shared" si="4"/>
-        <v>0.41143817199609528</v>
-      </c>
-      <c r="K7" s="299">
+        <v>0.38902560057151303</v>
+      </c>
+      <c r="K7" s="273">
         <v>980388</v>
       </c>
       <c r="L7" s="224">
@@ -8895,7 +8895,7 @@
         <f t="shared" si="5"/>
         <v>0.52708519484122618</v>
       </c>
-      <c r="N7" s="305">
+      <c r="N7" s="278">
         <f t="shared" si="0"/>
         <v>0.11599081180104204</v>
       </c>
@@ -8915,40 +8915,40 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="279" t="s">
+      <c r="A8" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="287">
+      <c r="B8" s="261">
         <v>203318</v>
       </c>
       <c r="C8" s="249">
         <v>142790</v>
       </c>
-      <c r="D8" s="286">
+      <c r="D8" s="260">
         <f t="shared" si="2"/>
         <v>0.70229886188138779</v>
       </c>
-      <c r="E8" s="287">
+      <c r="E8" s="268">
         <v>234332</v>
       </c>
-      <c r="F8" s="249">
+      <c r="F8" s="253">
         <v>144648</v>
       </c>
-      <c r="G8" s="286">
+      <c r="G8" s="260">
         <f t="shared" si="3"/>
         <v>0.61727804994623015</v>
       </c>
-      <c r="H8" s="294">
+      <c r="H8" s="268">
         <v>264911</v>
       </c>
       <c r="I8" s="253">
-        <v>148628</v>
-      </c>
-      <c r="J8" s="295">
+        <v>139566</v>
+      </c>
+      <c r="J8" s="269">
         <f t="shared" si="4"/>
-        <v>0.56104880507038213</v>
-      </c>
-      <c r="K8" s="299">
+        <v>0.52684109002646173</v>
+      </c>
+      <c r="K8" s="273">
         <v>303009</v>
       </c>
       <c r="L8" s="224">
@@ -8958,7 +8958,7 @@
         <f t="shared" si="5"/>
         <v>0.64571019342659786</v>
       </c>
-      <c r="N8" s="305">
+      <c r="N8" s="278">
         <f t="shared" si="0"/>
         <v>0.11860043761076404</v>
       </c>
@@ -8978,40 +8978,40 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="279" t="s">
+      <c r="A9" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="287">
+      <c r="B9" s="261">
         <v>188541</v>
       </c>
       <c r="C9" s="249">
         <v>134572</v>
       </c>
-      <c r="D9" s="286">
+      <c r="D9" s="260">
         <f t="shared" si="2"/>
         <v>0.71375456797195302</v>
       </c>
-      <c r="E9" s="287">
+      <c r="E9" s="268">
         <v>215497</v>
       </c>
-      <c r="F9" s="249">
-        <v>137746</v>
-      </c>
-      <c r="G9" s="286">
+      <c r="F9" s="253">
+        <v>136747</v>
+      </c>
+      <c r="G9" s="260">
         <f t="shared" si="3"/>
-        <v>0.63920147380241954</v>
-      </c>
-      <c r="H9" s="294">
+        <v>0.63456567840851608</v>
+      </c>
+      <c r="H9" s="268">
         <v>245022</v>
       </c>
       <c r="I9" s="253">
-        <v>134945</v>
-      </c>
-      <c r="J9" s="295">
+        <v>124776</v>
+      </c>
+      <c r="J9" s="269">
         <f t="shared" si="4"/>
-        <v>0.55074646358286194</v>
-      </c>
-      <c r="K9" s="299">
+        <v>0.50924406787961896</v>
+      </c>
+      <c r="K9" s="273">
         <v>284754</v>
       </c>
       <c r="L9" s="224">
@@ -9021,7 +9021,7 @@
         <f t="shared" si="5"/>
         <v>0.68500530282278738</v>
       </c>
-      <c r="N9" s="305">
+      <c r="N9" s="278">
         <f t="shared" si="0"/>
         <v>0.13460741552357475</v>
       </c>
@@ -9041,40 +9041,40 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="287">
+      <c r="B10" s="261">
         <v>680832</v>
       </c>
       <c r="C10" s="249">
         <v>463529</v>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="260">
         <f t="shared" si="2"/>
         <v>0.68082728191389363</v>
       </c>
-      <c r="E10" s="287">
+      <c r="E10" s="268">
         <v>774186</v>
       </c>
-      <c r="F10" s="249">
+      <c r="F10" s="253">
         <v>455691</v>
       </c>
-      <c r="G10" s="286">
+      <c r="G10" s="260">
         <f t="shared" si="3"/>
         <v>0.58860661391448565</v>
       </c>
-      <c r="H10" s="294">
+      <c r="H10" s="268">
         <v>898000</v>
       </c>
       <c r="I10" s="253">
-        <v>449392</v>
-      </c>
-      <c r="J10" s="295">
+        <v>426181</v>
+      </c>
+      <c r="J10" s="269">
         <f t="shared" si="4"/>
-        <v>0.50043652561247221</v>
-      </c>
-      <c r="K10" s="299">
+        <v>0.4745890868596882</v>
+      </c>
+      <c r="K10" s="273">
         <v>1007930</v>
       </c>
       <c r="L10" s="224">
@@ -9084,7 +9084,7 @@
         <f t="shared" si="5"/>
         <v>0.65358507039179303</v>
       </c>
-      <c r="N10" s="305">
+      <c r="N10" s="278">
         <f t="shared" si="0"/>
         <v>0.10611649618525096</v>
       </c>
@@ -9104,40 +9104,40 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="279" t="s">
+      <c r="A11" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="287">
+      <c r="B11" s="261">
         <v>20710</v>
       </c>
       <c r="C11" s="249">
         <v>13113</v>
       </c>
-      <c r="D11" s="286">
+      <c r="D11" s="260">
         <f t="shared" si="2"/>
         <v>0.63317238049251567</v>
       </c>
-      <c r="E11" s="287">
+      <c r="E11" s="268">
         <v>23680</v>
       </c>
-      <c r="F11" s="249">
+      <c r="F11" s="253">
         <v>14833</v>
       </c>
-      <c r="G11" s="286">
+      <c r="G11" s="260">
         <f t="shared" si="3"/>
         <v>0.62639358108108112</v>
       </c>
-      <c r="H11" s="294">
+      <c r="H11" s="268">
         <v>26722</v>
       </c>
       <c r="I11" s="253">
-        <v>15819</v>
-      </c>
-      <c r="J11" s="295">
+        <v>14854</v>
+      </c>
+      <c r="J11" s="269">
         <f t="shared" si="4"/>
-        <v>0.59198413292418228</v>
-      </c>
-      <c r="K11" s="299">
+        <v>0.55587156649951353</v>
+      </c>
+      <c r="K11" s="273">
         <v>34447</v>
       </c>
       <c r="L11" s="224">
@@ -9147,7 +9147,7 @@
         <f t="shared" si="5"/>
         <v>0.647632595001016</v>
       </c>
-      <c r="N11" s="305">
+      <c r="N11" s="278">
         <f t="shared" si="0"/>
         <v>0.16860684529857461</v>
       </c>
@@ -9167,40 +9167,40 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="279" t="s">
+      <c r="A12" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="287">
+      <c r="B12" s="261">
         <v>84237</v>
       </c>
       <c r="C12" s="249">
         <v>63012</v>
       </c>
-      <c r="D12" s="286">
+      <c r="D12" s="260">
         <f t="shared" si="2"/>
         <v>0.74803233733395069</v>
       </c>
-      <c r="E12" s="287">
-        <v>96554</v>
-      </c>
-      <c r="F12" s="249">
+      <c r="E12" s="268">
+        <v>96544</v>
+      </c>
+      <c r="F12" s="253">
         <v>64593</v>
       </c>
-      <c r="G12" s="286">
+      <c r="G12" s="260">
         <f t="shared" si="3"/>
-        <v>0.66898315968266464</v>
-      </c>
-      <c r="H12" s="294">
+        <v>0.66905245276765002</v>
+      </c>
+      <c r="H12" s="268">
         <v>111128</v>
       </c>
       <c r="I12" s="253">
-        <v>67481</v>
-      </c>
-      <c r="J12" s="295">
+        <v>61907</v>
+      </c>
+      <c r="J12" s="269">
         <f t="shared" si="4"/>
-        <v>0.60723670002159669</v>
-      </c>
-      <c r="K12" s="299">
+        <v>0.55707832409473756</v>
+      </c>
+      <c r="K12" s="273">
         <v>134040</v>
       </c>
       <c r="L12" s="224">
@@ -9210,7 +9210,7 @@
         <f t="shared" si="5"/>
         <v>0.71435392420173083</v>
       </c>
-      <c r="N12" s="305">
+      <c r="N12" s="278">
         <f t="shared" si="0"/>
         <v>0.16147418680990749</v>
       </c>
@@ -9230,40 +9230,40 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="279" t="s">
+      <c r="A13" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="287">
+      <c r="B13" s="261">
         <v>21922</v>
       </c>
       <c r="C13" s="249">
         <v>11538</v>
       </c>
-      <c r="D13" s="286">
+      <c r="D13" s="260">
         <f t="shared" si="2"/>
         <v>0.52632059118693553</v>
       </c>
-      <c r="E13" s="287">
+      <c r="E13" s="268">
         <v>27868</v>
       </c>
-      <c r="F13" s="249">
+      <c r="F13" s="253">
         <v>13259</v>
       </c>
-      <c r="G13" s="286">
+      <c r="G13" s="260">
         <f t="shared" si="3"/>
         <v>0.47577867087699155</v>
       </c>
-      <c r="H13" s="294">
+      <c r="H13" s="268">
         <v>33068</v>
       </c>
       <c r="I13" s="253">
-        <v>15093</v>
-      </c>
-      <c r="J13" s="295">
+        <v>14401</v>
+      </c>
+      <c r="J13" s="269">
         <f t="shared" si="4"/>
-        <v>0.45642312809967339</v>
-      </c>
-      <c r="K13" s="299">
+        <v>0.43549655255836456</v>
+      </c>
+      <c r="K13" s="273">
         <v>39022</v>
       </c>
       <c r="L13" s="224">
@@ -9273,7 +9273,7 @@
         <f t="shared" si="5"/>
         <v>0.52718979037466041</v>
       </c>
-      <c r="N13" s="305">
+      <c r="N13" s="278">
         <f t="shared" si="0"/>
         <v>0.19581261852288454</v>
       </c>
@@ -9293,40 +9293,40 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="279" t="s">
+      <c r="A14" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="287">
+      <c r="B14" s="261">
         <v>76157</v>
       </c>
       <c r="C14" s="249">
         <v>57891</v>
       </c>
-      <c r="D14" s="286">
+      <c r="D14" s="260">
         <f t="shared" si="2"/>
         <v>0.76015336738579509</v>
       </c>
-      <c r="E14" s="287">
+      <c r="E14" s="268">
         <v>88292</v>
       </c>
-      <c r="F14" s="249">
+      <c r="F14" s="253">
         <v>57908</v>
       </c>
-      <c r="G14" s="286">
+      <c r="G14" s="260">
         <f t="shared" si="3"/>
         <v>0.65586916141892815</v>
       </c>
-      <c r="H14" s="294">
+      <c r="H14" s="268">
         <v>101315</v>
       </c>
       <c r="I14" s="253">
-        <v>61330</v>
-      </c>
-      <c r="J14" s="295">
+        <v>56611</v>
+      </c>
+      <c r="J14" s="269">
         <f t="shared" si="4"/>
-        <v>0.60533978186843018</v>
-      </c>
-      <c r="K14" s="299">
+        <v>0.55876227606968365</v>
+      </c>
+      <c r="K14" s="273">
         <v>119651</v>
       </c>
       <c r="L14" s="224">
@@ -9336,7 +9336,7 @@
         <f t="shared" si="5"/>
         <v>0.70625402211431576</v>
       </c>
-      <c r="N14" s="305">
+      <c r="N14" s="278">
         <f t="shared" si="0"/>
         <v>0.14695238652414105</v>
       </c>
@@ -9356,40 +9356,40 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="279" t="s">
+      <c r="A15" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="287">
+      <c r="B15" s="261">
         <v>116505</v>
       </c>
       <c r="C15" s="249">
         <v>89118</v>
       </c>
-      <c r="D15" s="286">
+      <c r="D15" s="260">
         <f t="shared" si="2"/>
         <v>0.76492854383932019</v>
       </c>
-      <c r="E15" s="287">
+      <c r="E15" s="268">
         <v>133109</v>
       </c>
-      <c r="F15" s="249">
-        <v>93727</v>
-      </c>
-      <c r="G15" s="286">
+      <c r="F15" s="253">
+        <v>87077</v>
+      </c>
+      <c r="G15" s="260">
         <f t="shared" si="3"/>
-        <v>0.70413721085726733</v>
-      </c>
-      <c r="H15" s="294">
+        <v>0.65417815474535912</v>
+      </c>
+      <c r="H15" s="268">
         <v>152082</v>
       </c>
       <c r="I15" s="253">
-        <v>102466</v>
-      </c>
-      <c r="J15" s="295">
+        <v>92416</v>
+      </c>
+      <c r="J15" s="269">
         <f t="shared" si="4"/>
-        <v>0.67375494798858515</v>
-      </c>
-      <c r="K15" s="299">
+        <v>0.6076721768519614</v>
+      </c>
+      <c r="K15" s="273">
         <v>181130</v>
       </c>
       <c r="L15" s="224">
@@ -9399,7 +9399,7 @@
         <f t="shared" si="5"/>
         <v>0.76668690995417654</v>
       </c>
-      <c r="N15" s="305">
+      <c r="N15" s="278">
         <f t="shared" si="0"/>
         <v>0.16418594379727267</v>
       </c>
@@ -9419,40 +9419,40 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="279" t="s">
+      <c r="A16" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="287">
+      <c r="B16" s="261">
         <v>57344</v>
       </c>
       <c r="C16" s="249">
         <v>42281</v>
       </c>
-      <c r="D16" s="286">
+      <c r="D16" s="260">
         <f t="shared" si="2"/>
         <v>0.7373221261160714</v>
       </c>
-      <c r="E16" s="287">
+      <c r="E16" s="268">
         <v>66318</v>
       </c>
-      <c r="F16" s="249">
+      <c r="F16" s="253">
         <v>43814</v>
       </c>
-      <c r="G16" s="286">
+      <c r="G16" s="260">
         <f t="shared" si="3"/>
         <v>0.66066527941132125</v>
       </c>
-      <c r="H16" s="294">
+      <c r="H16" s="268">
         <v>76526</v>
       </c>
       <c r="I16" s="253">
-        <v>47319</v>
-      </c>
-      <c r="J16" s="295">
+        <v>44086</v>
+      </c>
+      <c r="J16" s="269">
         <f t="shared" si="4"/>
-        <v>0.61833886522227743</v>
-      </c>
-      <c r="K16" s="299">
+        <v>0.57609178579829079</v>
+      </c>
+      <c r="K16" s="273">
         <v>91115</v>
       </c>
       <c r="L16" s="224">
@@ -9462,7 +9462,7 @@
         <f t="shared" si="5"/>
         <v>0.72522636228941451</v>
       </c>
-      <c r="N16" s="305">
+      <c r="N16" s="278">
         <f t="shared" si="0"/>
         <v>0.16579048455248863</v>
       </c>
@@ -9482,40 +9482,40 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="279" t="s">
+      <c r="A17" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="287">
+      <c r="B17" s="261">
         <v>203744</v>
       </c>
       <c r="C17" s="249">
         <v>137242</v>
       </c>
-      <c r="D17" s="286">
+      <c r="D17" s="260">
         <f t="shared" si="2"/>
         <v>0.67360020417779176</v>
       </c>
-      <c r="E17" s="287">
+      <c r="E17" s="268">
         <v>237715</v>
       </c>
-      <c r="F17" s="249">
-        <v>141546</v>
-      </c>
-      <c r="G17" s="286">
+      <c r="F17" s="253">
+        <v>137666</v>
+      </c>
+      <c r="G17" s="260">
         <f t="shared" si="3"/>
-        <v>0.59544412426645354</v>
-      </c>
-      <c r="H17" s="294">
+        <v>0.57912205792650862</v>
+      </c>
+      <c r="H17" s="268">
         <v>278904</v>
       </c>
       <c r="I17" s="253">
-        <v>151613</v>
-      </c>
-      <c r="J17" s="295">
+        <v>138894</v>
+      </c>
+      <c r="J17" s="269">
         <f t="shared" si="4"/>
-        <v>0.54360281673981015</v>
-      </c>
-      <c r="K17" s="299">
+        <v>0.49799931159108513</v>
+      </c>
+      <c r="K17" s="273">
         <v>326647</v>
       </c>
       <c r="L17" s="224">
@@ -9525,7 +9525,7 @@
         <f t="shared" si="5"/>
         <v>0.63031958046453818</v>
       </c>
-      <c r="N17" s="305">
+      <c r="N17" s="278">
         <f t="shared" si="0"/>
         <v>0.13374376620633283</v>
       </c>
@@ -9545,40 +9545,40 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="287">
+      <c r="B18" s="261">
         <v>192525</v>
       </c>
       <c r="C18" s="249">
         <v>137735</v>
       </c>
-      <c r="D18" s="286">
+      <c r="D18" s="260">
         <f t="shared" si="2"/>
         <v>0.71541358265160371</v>
       </c>
-      <c r="E18" s="287">
+      <c r="E18" s="268">
         <v>218645</v>
       </c>
-      <c r="F18" s="249">
-        <v>143621</v>
-      </c>
-      <c r="G18" s="286">
+      <c r="F18" s="253">
+        <v>142451</v>
+      </c>
+      <c r="G18" s="260">
         <f t="shared" si="3"/>
-        <v>0.65686843970820274</v>
-      </c>
-      <c r="H18" s="294">
+        <v>0.65151729973244299</v>
+      </c>
+      <c r="H18" s="268">
         <v>250894</v>
       </c>
       <c r="I18" s="253">
-        <v>132799</v>
-      </c>
-      <c r="J18" s="295">
+        <v>121591</v>
+      </c>
+      <c r="J18" s="269">
         <f t="shared" si="4"/>
-        <v>0.52930321171490746</v>
-      </c>
-      <c r="K18" s="299">
+        <v>0.48463095968815517</v>
+      </c>
+      <c r="K18" s="273">
         <v>293625</v>
       </c>
       <c r="L18" s="224">
@@ -9588,7 +9588,7 @@
         <f t="shared" si="5"/>
         <v>0.67558961260110684</v>
       </c>
-      <c r="N18" s="305">
+      <c r="N18" s="278">
         <f t="shared" si="0"/>
         <v>0.14056023839931886</v>
       </c>
@@ -9608,40 +9608,40 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="279" t="s">
+      <c r="A19" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="287">
+      <c r="B19" s="261">
         <v>86285</v>
       </c>
       <c r="C19" s="249">
         <v>58981</v>
       </c>
-      <c r="D19" s="286">
+      <c r="D19" s="260">
         <f t="shared" si="2"/>
         <v>0.68356029437329779</v>
       </c>
-      <c r="E19" s="287">
+      <c r="E19" s="268">
         <v>100955</v>
       </c>
-      <c r="F19" s="249">
+      <c r="F19" s="253">
         <v>58793</v>
       </c>
-      <c r="G19" s="286">
+      <c r="G19" s="260">
         <f t="shared" si="3"/>
         <v>0.58236838195235496</v>
       </c>
-      <c r="H19" s="294">
+      <c r="H19" s="268">
         <v>117173</v>
       </c>
       <c r="I19" s="253">
-        <v>66972</v>
-      </c>
-      <c r="J19" s="295">
+        <v>62974</v>
+      </c>
+      <c r="J19" s="269">
         <f t="shared" si="4"/>
-        <v>0.57156512165771978</v>
-      </c>
-      <c r="K19" s="299">
+        <v>0.53744463314927504</v>
+      </c>
+      <c r="K19" s="273">
         <v>133262</v>
       </c>
       <c r="L19" s="224">
@@ -9651,7 +9651,7 @@
         <f t="shared" si="5"/>
         <v>0.62892647566448046</v>
       </c>
-      <c r="N19" s="305">
+      <c r="N19" s="278">
         <f t="shared" si="0"/>
         <v>0.10633188755984452</v>
       </c>
@@ -9671,40 +9671,40 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="16.2" thickBot="1">
-      <c r="A20" s="280" t="s">
+      <c r="A20" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="288">
+      <c r="B20" s="262">
         <v>241024</v>
       </c>
       <c r="C20" s="250">
         <v>146416</v>
       </c>
-      <c r="D20" s="286">
+      <c r="D20" s="260">
         <f t="shared" si="2"/>
         <v>0.60747477429633567</v>
       </c>
-      <c r="E20" s="288">
+      <c r="E20" s="268">
         <v>276595</v>
       </c>
-      <c r="F20" s="250">
-        <v>123919</v>
-      </c>
-      <c r="G20" s="286">
+      <c r="F20" s="253">
+        <v>122269</v>
+      </c>
+      <c r="G20" s="260">
         <f t="shared" si="3"/>
-        <v>0.44801605235091019</v>
-      </c>
-      <c r="H20" s="294">
+        <v>0.44205065167483143</v>
+      </c>
+      <c r="H20" s="268">
         <v>317602</v>
       </c>
       <c r="I20" s="253">
-        <v>131065</v>
-      </c>
-      <c r="J20" s="295">
+        <v>121936</v>
+      </c>
+      <c r="J20" s="269">
         <f t="shared" si="4"/>
-        <v>0.41267057512232291</v>
-      </c>
-      <c r="K20" s="300">
+        <v>0.38392705335608718</v>
+      </c>
+      <c r="K20" s="274">
         <v>369629</v>
       </c>
       <c r="L20" s="241">
@@ -9714,7 +9714,7 @@
         <f t="shared" si="5"/>
         <v>0.54348549491517173</v>
       </c>
-      <c r="N20" s="306">
+      <c r="N20" s="279">
         <f t="shared" si="0"/>
         <v>0.14129032083521584</v>
       </c>
@@ -9734,10 +9734,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="21.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="281" t="s">
+      <c r="A21" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="289">
+      <c r="B21" s="263">
         <f>SUM(B3:B20)</f>
         <v>3437454</v>
       </c>
@@ -9745,35 +9745,35 @@
         <f>SUM(C3:C20)</f>
         <v>2280526</v>
       </c>
-      <c r="D21" s="290">
+      <c r="D21" s="264">
         <f>C21/B21</f>
         <v>0.66343462341605153</v>
       </c>
-      <c r="E21" s="289">
+      <c r="E21" s="263">
         <f>SUM(E3:E20)</f>
-        <v>3965050</v>
+        <v>3965040</v>
       </c>
       <c r="F21" s="251">
         <f>SUM(F3:F20)</f>
-        <v>2189934</v>
-      </c>
-      <c r="G21" s="291">
+        <v>2172472</v>
+      </c>
+      <c r="G21" s="265">
         <f>F21/E21</f>
-        <v>0.55230930253086341</v>
-      </c>
-      <c r="H21" s="296">
+        <v>0.54790670459818813</v>
+      </c>
+      <c r="H21" s="270">
         <f>+SUM(H3:H20)</f>
         <v>4592898</v>
       </c>
-      <c r="I21" s="297">
+      <c r="I21" s="271">
         <f>+SUM(I3:I20)</f>
-        <v>2298690</v>
-      </c>
-      <c r="J21" s="291">
+        <v>2143007</v>
+      </c>
+      <c r="J21" s="265">
         <f>+I21/H21</f>
-        <v>0.50048792723025859</v>
-      </c>
-      <c r="K21" s="301">
+        <v>0.46659146360315429</v>
+      </c>
+      <c r="K21" s="275">
         <f>SUM(K3:K20)</f>
         <v>5308781</v>
       </c>
@@ -9781,11 +9781,11 @@
         <f>SUM(L3:L20)</f>
         <v>3272250</v>
       </c>
-      <c r="M21" s="302">
+      <c r="M21" s="276">
         <f>L21/K21</f>
         <v>0.6163844392903004</v>
       </c>
-      <c r="N21" s="307">
+      <c r="N21" s="280">
         <f t="shared" si="0"/>
         <v>0.12949771331686125</v>
       </c>
